--- a/biology/Botanique/Orchis_moucheron/Orchis_moucheron.xlsx
+++ b/biology/Botanique/Orchis_moucheron/Orchis_moucheron.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gymnadenia conopsea
 L’Orchis moucheron, Orchis moustique ou Gymnadénie moucheron (Gymnadenia conopsea), est une espèce de plante à fleurs de la famille des orchidées terrestre européenne et asiatique.
@@ -512,14 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Plante élancée à feuilles dressées, à inflorescence dense cylindrique de 20 à 80 petites fleurs lilas ou violacées, parfois plus claires, parfumées au crépuscule, à long éperon nectarifère arqué vers le bas.
-Caractéristiques distinctives
-Les fleurs sont prolongées par un long éperon horizontal au départ, puis recourbé[1].
-Les trois lobes du labelle sont de même longueur[2]ce qui différencie cette orchidée de Gymnadenia odoratissima (dont l'aire de dispersion européenne est nettement plus réduite)[3].
-Variété densiflora
-Des plantes plus élancées et à l'inflorescence plus dense, d'abord classées comme Gymnadenia conoposea var. densiflora sont désormais décrites par certains auteurs comme une espèce à part entière dénommée Gymnadenia densiflora (en français : Orchis moucheron à inflorescence dense).
 </t>
         </is>
       </c>
@@ -545,12 +554,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Floraison</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mai-août (début juin dans la Haute-Saône à 300 m d'altitude).
+          <t>Caractéristiques distinctives</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les fleurs sont prolongées par un long éperon horizontal au départ, puis recourbé.
+Les trois lobes du labelle sont de même longueurce qui différencie cette orchidée de Gymnadenia odoratissima (dont l'aire de dispersion européenne est nettement plus réduite).
 </t>
         </is>
       </c>
@@ -576,12 +592,18 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Habitat</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Plante de pleine lumière, sur substrat surtout calcaire, sec à détrempé, pelouses, prairies, suintements humides.
+          <t>Variété densiflora</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Des plantes plus élancées et à l'inflorescence plus dense, d'abord classées comme Gymnadenia conoposea var. densiflora sont désormais décrites par certains auteurs comme une espèce à part entière dénommée Gymnadenia densiflora (en français : Orchis moucheron à inflorescence dense).
 </t>
         </is>
       </c>
@@ -607,12 +629,14 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Répartition</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Très vaste : eurasiatique des régions boréales à tempérées, montagnarde au sud. Espèce fréquente, illustrations[4].
+          <t>Floraison</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mai-août (début juin dans la Haute-Saône à 300 m d'altitude).
 </t>
         </is>
       </c>
@@ -638,12 +662,14 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Vulnérabilité</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est classée "LC" : Préoccupation mineure[5].
+          <t>Habitat</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plante de pleine lumière, sur substrat surtout calcaire, sec à détrempé, pelouses, prairies, suintements humides.
 </t>
         </is>
       </c>
@@ -669,10 +695,78 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>Répartition</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Très vaste : eurasiatique des régions boréales à tempérées, montagnarde au sud. Espèce fréquente, illustrations.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Orchis_moucheron</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Orchis_moucheron</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Vulnérabilité</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est classée "LC" : Préoccupation mineure.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Orchis_moucheron</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Orchis_moucheron</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Protection</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">En France, l'espèce est protégée en Corse et en Limousin.
 Liste des espèces végétales protégées en Corse
